--- a/biology/Médecine/1512_en_santé_et_médecine/1512_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1512_en_santé_et_médecine/1512_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1512_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1512_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1512 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1512_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1512_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En Espagne, l'hôpital des Innocents de Valence, créé en 1509, disparaît à la fondation de l'hôpital général, qui prend alors en charge les fous[1].
-1505-1512 : fondation par les rois Henri VII et Henri VIII  de l'hôpital de Savoie (Savoy Hospital) de Londres[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En Espagne, l'hôpital des Innocents de Valence, créé en 1509, disparaît à la fondation de l'hôpital général, qui prend alors en charge les fous.
+1505-1512 : fondation par les rois Henri VII et Henri VIII  de l'hôpital de Savoie (Savoy Hospital) de Londres.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1512_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1512_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sous le titre de De oculis Galeni a Demetrio translatus, paraît une version latine « enrichi[e] de nombreuses interpolations » de la traduction arabe de deux ouvrages de Galien : Utilité des parties du corps : Des yeux et de leurs annexes, et Diagnostic des maladies des yeux[3],[4].
-Impression du Trésor des pauvres de Gérard de Solo et Arnaud de Villeneuve[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sous le titre de De oculis Galeni a Demetrio translatus, paraît une version latine « enrichi[e] de nombreuses interpolations » de la traduction arabe de deux ouvrages de Galien : Utilité des parties du corps : Des yeux et de leurs annexes, et Diagnostic des maladies des yeux,.
+Impression du Trésor des pauvres de Gérard de Solo et Arnaud de Villeneuve.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1512_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1512_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Francis Skaryna (1486-1490 – 1540-1551) est reçu docteur en médecine à Padoue[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Francis Skaryna (1486-1490 – 1540-1551) est reçu docteur en médecine à Padoue.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1512_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1512_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,9 +621,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1512[7] ou 1513[8] : Nagata Tokuhon (en) (mort en 1630), médecin japonais, partisan d'une médecine naturelle, successivement au service des clans Takeda et Tokugawa.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1512 ou 1513 : Nagata Tokuhon (en) (mort en 1630), médecin japonais, partisan d'une médecine naturelle, successivement au service des clans Takeda et Tokugawa.</t>
         </is>
       </c>
     </row>
@@ -615,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1512_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1512_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -633,11 +653,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2 août : Alessandro Achillini (né en 1463), philosophe, médecin et anatomiste italien, professeur à Bologne et Padoue[9].
-31 octobre : Alessandro Benedetti[10] (né en 1452), médecin, anatomiste, historien, philologue et humaniste italien, professeur à Padoue et à Venise, auteur de plusieurs ouvrages, dont un De observatione in pestilentia[11] et une Anatomice, sive De historia corporis humani[12], imprimés pour la première fois à Venise en 1493[13].
-Jérôme Brunschwig (né vers 1450), apothicaire et chirurgien allemand, auteur d'un « Livre de chirurgie » (Das Buch der Cirurgia), imprimé à Strasbourg, chez Grüninger, en 1497[14].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 août : Alessandro Achillini (né en 1463), philosophe, médecin et anatomiste italien, professeur à Bologne et Padoue.
+31 octobre : Alessandro Benedetti (né en 1452), médecin, anatomiste, historien, philologue et humaniste italien, professeur à Padoue et à Venise, auteur de plusieurs ouvrages, dont un De observatione in pestilentia et une Anatomice, sive De historia corporis humani, imprimés pour la première fois à Venise en 1493.
+Jérôme Brunschwig (né vers 1450), apothicaire et chirurgien allemand, auteur d'un « Livre de chirurgie » (Das Buch der Cirurgia), imprimé à Strasbourg, chez Grüninger, en 1497.</t>
         </is>
       </c>
     </row>
